--- a/ElegantJavaScript.xlsx
+++ b/ElegantJavaScript.xlsx
@@ -103,12 +103,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this.examples.</t>
+        <color rgb="FF780373"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.examples.</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +149,27 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> {
-  this.runExample(example);
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF780373"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.runExample(example);
 });</t>
     </r>
   </si>
@@ -223,7 +253,27 @@
     };
   },
   createArrowFunction: function() {
-    return </t>
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -317,12 +367,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this.doSomethingAsync().then(</t>
+        <color rgb="FF780373"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.doSomethingAsync().then(</t>
     </r>
     <r>
       <rPr>
@@ -343,7 +403,27 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> {
-  this.storeResult(result);
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF780373"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.storeResult(result);
 });</t>
     </r>
   </si>
@@ -354,14 +434,81 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let cars = ['Honda', 'Toyota', 'Seat', 'Opel', 'VW', 'BMW', 'Audi'];
-let nums = [1,1,1,2,3,1,2,1,1,2,1,1,2,2,3,4,5,5,5,5]
-let sum = nums.</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cars = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'Honda', 'Toyota', 'Seat', 'Opel', 'VW', 'BMW', 'Audi'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">];
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nums = [1,1,1,2,3,1,2,1,1,2,1,1,2,2,3,4,5,5,5,5]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sum = nums.</t>
     </r>
     <r>
       <rPr>
@@ -418,7 +565,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">let false_arr = [false, 0, "", null, NaN, undefined];</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> false_arr = [false, 0, "", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, NaN, undefined];</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Список ложных значений</t>
@@ -427,12 +612,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let true_arr = arr.</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> true_arr = arr.</t>
     </r>
     <r>
       <rPr>
@@ -482,12 +677,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let obj = {</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> obj = {</t>
     </r>
     <r>
       <rPr>
@@ -517,12 +722,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let unique_nums = [… </t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> unique_nums = [… </t>
     </r>
     <r>
       <rPr>
@@ -563,7 +777,26 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(nums)];
-let unique_nums2 = Array.from(new Set(nums));</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> unique_nums2 = Array.from(new Set(nums));</t>
     </r>
   </si>
   <si>
@@ -627,17 +860,46 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let new_cars = [
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> new_cars = [
 {car: 'Honda', color: 'Red'},
 {car: 'Toyota', color: 'Black'},
 {car: 'Nissan', color: 'Blue'},
 ]
-let car_name = </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> car_name = </t>
     </r>
     <r>
       <rPr>
@@ -703,12 +965,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let new_nums = [… </t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> new_nums = [… </t>
     </r>
     <r>
       <rPr>
@@ -817,12 +1088,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let reverse = nums.</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reverse = nums.</t>
     </r>
     <r>
       <rPr>
@@ -871,12 +1151,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let last_index = nums.</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> last_index = nums.</t>
     </r>
     <r>
       <rPr>
@@ -935,12 +1224,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let new_arr = new Array(10).</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> new_arr = new Array(10).</t>
     </r>
     <r>
       <rPr>
@@ -970,12 +1268,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let random_num = nums[Math.floor(</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> random_num = nums[Math.floor(</t>
     </r>
     <r>
       <rPr>
@@ -1029,7 +1336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1069,6 +1376,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF780373"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1083,18 +1397,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFB75300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB75300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1138,7 +1478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1147,7 +1487,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1155,7 +1495,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,10 +1535,10 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF780373"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -1222,7 +1578,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFB75300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1232,13 +1588,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1273,15 +1629,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1289,8 +1645,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1461,65 +1817,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1530,12 +1886,12 @@
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1550,40 +1906,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3" t="s">

--- a/ElegantJavaScript.xlsx
+++ b/ElegantJavaScript.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Функции" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="массивы" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="React" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -29,16 +30,184 @@
     <t xml:space="preserve">Описание</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">const words = ['hello', 'WORLD', 'Whatever'];
-const downcasedWords = words.</t>
+    <t xml:space="preserve">Стрелочная функция (лямбда)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">() {
+    likes += 1;
+    console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(likes);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция инкремента - простая
+инкременирует внешнюю переменную likes и выводит в консоль результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">() =&gt; likes += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция инкремента - стрелочная.
+Аналог лямбды в Питоне!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> words = ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WORLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'Whatever'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">];
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> downcasedWords = words.</t>
     </r>
     <r>
       <rPr>
@@ -68,12 +237,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">const names = objects.</t>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> names = objects.</t>
     </r>
     <r>
       <rPr>
@@ -219,13 +398,43 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">const test = {
-  name: 'test object',
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> test = {
+  name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'test object'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
   createAnonFunction: function() {
     return </t>
     </r>
@@ -248,8 +457,48 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> {
-      console.log(this.name);
-      console.log(arguments);
+      console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(this.name);
+      console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(arguments);
     };
   },
   createArrowFunction: function() {
@@ -294,8 +543,48 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{
-      console.log(this.name);
-      console.log(arguments);
+      console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(this.name);
+      console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(arguments);
     };
   }
 };</t>
@@ -437,6 +726,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -477,6 +767,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -497,6 +788,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -571,6 +863,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -725,6 +1018,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -785,6 +1079,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -888,6 +1183,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -968,6 +1264,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -1091,6 +1388,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -1154,6 +1452,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -1227,6 +1526,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -1271,6 +1571,7 @@
         <color rgb="FFB75300"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">let</t>
     </r>
@@ -1327,6 +1628,3005 @@
   </si>
   <si>
     <t xml:space="preserve">Случайный элемент из массива</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальная структура проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public/
+    index.html
+src/
+    App.js
+    index.js</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ReactDOM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(
+                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;App /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF512DA8"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">getElementById</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'root'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ReactDom.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> вставляет наш элемент (&lt;App/&gt;)
+в место, указанное во втором атрибуте (находим по id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'root'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Описывать вставляемые элементы удобнее через систему краткой записи JSX,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">когда мы в тегах пишем наши элементы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;button&gt;Название кнопки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">кнопка в JSX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">React.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">createElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+                    {disabled: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">},
+                    'Нажми на меня')</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Разместить элемент React обычным способом.
+Первым аргументом - тип элемента.
+Вторым - набор параметров в виде словаря
+Третьим - текст элемента</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">React.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">createElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+                    {onClick: () =&gt; 
+                    console.log('Нажата кнопка!')},
+                    'Нажми на меня'),</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Разместить элемент React с указанием действия "по нажатию".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Характеризуют состояния и изменения объектов.
+При изменении Состояний только React перерисует объект!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF006600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">'react'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+const</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">state = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(0)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">объявление состояния с указанием: 
+1 атрибут -  значения по умолчанию,
+2 атрибут - функция изменения состояния</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [count, setCount] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(0)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Получаем в разные переменные значение Состояния
+и функцию Состояния</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">App() {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">[likes, setLikes] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(0)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        setLikes(likes + 1)
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        setLikes(likes - 1)
+    }
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">return</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(
+    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> className=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF006600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">"App"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{likes}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> onClick={increment}&gt;Increment&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+        &lt;p&gt;  &lt;/p&gt;
+        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> onClick={decrement}&gt;Increment&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+  );
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">export</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">default</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">App;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Использование Состояния количества лайков 
+с двумя функциями - увеличения и уменьшения,
+вызывающими одну - ф-ю изменения состояния </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">setLikes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+Так как меняется не просто переменная, а Состояние,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">React перерисовывает число лайков при каждом изменении.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> type=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+       value={textVal}
+       onChange={event =&gt; setTextVal(event.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">target.value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)}
+/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">простое окошко ввода,
+где </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">setTextVal - ф-я изменения Состояния текстовой переменной textVal</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Хуки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">можно использовать в функциональных элементах и своих хуках ТОЛЬКО на 1 уровне вложенности.
+НЕЛЬЗЯ вкладывать хуки в нижние уровни: в классы, циклы, функции, условия…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">useState( );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">useEffect( );
+useRef( );
+useMemo( );
+useCallback( );
+useContext( );</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Магические функции React,
+начинающиеся со слова use:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компоненты</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">src/
+    components/
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Counter.jsx</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Хранятся в папке components в формате .jsx,
+импортируются в нужные места в любом количестве</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">import</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"./components/Counter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">import</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ClassCounter </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"./components/ClassCounter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">() {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">return</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> className=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"App"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Counter/&gt;
+        &lt;ClassCounter/&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  );
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">export default</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Импорт компонентов в приложение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Пример </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">функционального компонента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">import</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">React, {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">from</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF006600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">'react'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Counter = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">() {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">const</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">[count, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">setCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(0)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">setCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(count + 1)
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">setCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(count - 1)
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">return</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{count}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;  &lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> onClick={increment}&gt;Increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/button&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;  &lt;/p&gt;
+            &lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> onClick={decrement}&gt;Decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/button&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+    )
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">export default</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Counter;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Выводит число и две кнопки
+- инкремента и декремента этого числа.
+используем хук </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">( )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Пример </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">классового компонента (УСТАРЕВШИЙ ПОДХОД)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">class</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ClassCounter </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">extends</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">React.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(props) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(props);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> = {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: 0
+        }
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">increment.bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">);
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">decrement.bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Инициализация объекта</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">setState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">state.count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">+ 1})
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">() {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">setState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">state.count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">- 1})
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> () {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">return</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div&gt;
+                &lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">state.count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h1&gt;
+                &lt;p&gt;  &lt;/p&gt;
+                &lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> onClick={</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.increment}&gt;Increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/button&gt;
+                &lt;p&gt;  &lt;/p&gt;
+                &lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> onClick={</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.decrement}&gt;Decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/button&gt;
+            &lt;/div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+        )
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">описание методов (БЕЗ ключевого слова function)
+Классовый компонент должен возвращать jsx, 
+рендерить его</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">export default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">ClassCounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1336,7 +4636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1368,6 +4668,48 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFB75300"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF996600"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB75300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
@@ -1397,20 +4739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFB75300"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB75300"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006600"/>
+      <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1422,8 +4751,169 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF512DA8"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFB75300"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF996600"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF006600"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFB75300"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB75300"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF800080"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFB75300"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF780373"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1433,11 +4923,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1450,6 +4958,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1478,7 +4993,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1491,11 +5006,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1503,15 +5038,67 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1527,7 +5114,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1535,10 +5122,10 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF780373"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -1549,12 +5136,12 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF780373"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1571,16 +5158,16 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFCC7832"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFB75300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF512DA8"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -1592,16 +5179,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="97.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.14"/>
   </cols>
   <sheetData>
@@ -1613,198 +5200,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="216.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1823,8 +5405,8 @@
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1835,236 +5417,236 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
+      <c r="A14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2075,4 +5657,385 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="42.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="46.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="12" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="54.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="70.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="252.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="56.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="67.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="237.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26"/>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ElegantJavaScript.xlsx
+++ b/ElegantJavaScript.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Функции" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="массивы" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="React" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ООП" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -1800,38 +1801,11 @@
       </rPr>
       <t xml:space="preserve">)
 Описывать вставляемые элементы удобнее через систему краткой записи JSX,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">когда мы в тегах пишем наши элементы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;button&gt;Название кнопки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/button&gt;</t>
-    </r>
+когда мы в тегах пишем наши элементы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;button&gt;Название кнопки&lt;/button&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">кнопка в JSX</t>
@@ -2000,6 +1974,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">useState</t>
     </r>
@@ -2412,17 +2387,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;/h1&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-        &lt;</t>
+      <t xml:space="preserve">&lt;/h1&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;</t>
     </r>
     <r>
       <rPr>
@@ -2596,6 +2571,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">setLikes</t>
     </r>
@@ -2660,17 +2636,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"text"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-       value={textVal}
+      <t xml:space="preserve">"text"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">       value={textVal}
        onChange={event =&gt; setTextVal(event.</t>
     </r>
     <r>
@@ -2724,34 +2700,103 @@
 НЕЛЬЗЯ вкладывать хуки в нижние уровни: в классы, циклы, функции, условия…</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">useState( );
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">useEffect( );
+    <t xml:space="preserve">useState( );
+useEffect( );
 useRef( );
 useMemo( );
 useCallback( );
 useContext( );</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Магические функции React,
 начинающиеся со слова use:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие магические функции</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.setState({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF780373"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">state.count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> + 1})</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setState  - ф-я установки нового состояния.
+Принимает словарь, где ключи - переменные, а значения - новые состояния</t>
   </si>
   <si>
     <t xml:space="preserve">Компоненты</t>
@@ -3058,17 +3103,17 @@
       </rPr>
       <t xml:space="preserve">&lt;Counter/&gt;
         &lt;ClassCounter/&gt;
-    &lt;/div&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-  );
+    &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  );
 }
 </t>
     </r>
@@ -3135,6 +3180,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Пример </t>
     </r>
@@ -3145,6 +3191,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">функционального компонента</t>
     </r>
@@ -3154,6 +3201,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -3542,17 +3590,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;div&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-           </t>
+      <t xml:space="preserve">&lt;div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
     </r>
     <r>
       <rPr>
@@ -3581,17 +3629,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;/h1&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-            </t>
+      <t xml:space="preserve">&lt;/h1&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
     </r>
     <r>
       <rPr>
@@ -3601,17 +3649,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;p&gt;  &lt;/p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-            </t>
+      <t xml:space="preserve">&lt;p&gt;  &lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
     </r>
     <r>
       <rPr>
@@ -3640,17 +3688,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;/button&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-            </t>
+      <t xml:space="preserve">&lt;/button&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
     </r>
     <r>
       <rPr>
@@ -3680,17 +3728,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;/button&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-        </t>
+      <t xml:space="preserve">&lt;/button&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -3700,17 +3748,17 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;/div&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-    )
+      <t xml:space="preserve">&lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">    )
 }
 </t>
     </r>
@@ -3786,6 +3834,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Пример </t>
     </r>
@@ -3796,6 +3845,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">классового компонента (УСТАРЕВШИЙ ПОДХОД)</t>
     </r>
@@ -4193,6 +4243,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">increment</t>
     </r>
@@ -4201,6 +4252,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() {
         </t>
@@ -4212,6 +4264,7 @@
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4220,6 +4273,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -4229,6 +4283,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">setState</t>
     </r>
@@ -4237,6 +4292,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">({</t>
     </r>
@@ -4246,6 +4302,7 @@
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">count</t>
     </r>
@@ -4254,6 +4311,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -4263,6 +4321,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4271,6 +4330,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -4280,6 +4340,7 @@
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">state.count </t>
     </r>
@@ -4288,6 +4349,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+ 1})
     }
@@ -4299,6 +4361,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">decrement</t>
     </r>
@@ -4307,6 +4370,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() {
         </t>
@@ -4318,6 +4382,7 @@
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4326,6 +4391,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -4335,6 +4401,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">setState</t>
     </r>
@@ -4343,6 +4410,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">({</t>
     </r>
@@ -4352,6 +4420,7 @@
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">count</t>
     </r>
@@ -4360,6 +4429,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -4369,6 +4439,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4377,6 +4448,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -4386,6 +4458,7 @@
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">state.count </t>
     </r>
@@ -4394,6 +4467,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- 1})
     }
@@ -4405,6 +4479,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">render</t>
     </r>
@@ -4413,6 +4488,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> () {
         </t>
@@ -4424,6 +4500,7 @@
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">return</t>
     </r>
@@ -4433,6 +4510,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4441,6 +4519,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(
             </t>
@@ -4451,6 +4530,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;div&gt;
                 &lt;h1&gt;</t>
@@ -4460,6 +4540,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{</t>
     </r>
@@ -4470,6 +4551,7 @@
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4478,6 +4560,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -4487,6 +4570,7 @@
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">state.count</t>
     </r>
@@ -4495,6 +4579,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -4504,6 +4589,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/h1&gt;
                 &lt;p&gt;  &lt;/p&gt;
@@ -4514,6 +4600,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> onClick={</t>
     </r>
@@ -4524,6 +4611,7 @@
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4532,6 +4620,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.increment}&gt;Increment</t>
     </r>
@@ -4541,6 +4630,7 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/button&gt;
                 &lt;p&gt;  &lt;/p&gt;
@@ -4551,6 +4641,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> onClick={</t>
     </r>
@@ -4561,6 +4652,7 @@
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">this</t>
     </r>
@@ -4569,6 +4661,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.decrement}&gt;Decrement</t>
     </r>
@@ -4578,18 +4671,20 @@
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/button&gt;
-            &lt;/div&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">
-        )
+            &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">        )
     }
 }</t>
     </r>
@@ -4607,6 +4702,7 @@
         <color rgb="FFCC7832"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">export default </t>
     </r>
@@ -4615,6 +4711,7 @@
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ClassCounter</t>
     </r>
@@ -4624,9 +4721,1288 @@
         <color rgb="FFCC7832"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Примеры классов и объектов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привязка методов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) obj.method();
+2) var method = obj.method;
+    method();</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">В JavaScript эти два фрагмента кода </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">НЕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> равнозначны</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Привязка гарантирует, что второй фрагмент будет работать так же, как и первый</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(thing) {
+  console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" says hello "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + thing);
+}
+hello.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Yehuda", "world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">//=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yehuda says hello world</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Функция ДАЖЕ БЕЗ класса принимает ключевое слово</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+которое просто подхватывает 1-й переданный в ф-ю аргумент.
+Если вызывать через </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">call</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">//=&gt; [object global] says hello world
+// this:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// desugars to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(undefined,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Но если вызвать как привыкли, то
+в </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> подставится объект окна ф-и</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">var</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">person = {
+    name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Brendan Eich"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+    hello: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(thing) {
+        console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" says hello "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + thing);
+    }  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// this:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+person.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// Идентично:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+person.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello.call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(person, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">//=&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[object Object] says hello world</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Если ф-я объявлена в переменной,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> будет ссылаться на эту переменную
+(объкт)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hello(thing) {
+  console.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" says hello " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ thing);
+}
+person = { name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Brendan Eich"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> }
+person.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = hello;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// #########################
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">person.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// still desugars to person.hello.call(person, "world")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">//=&gt;  [object </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">] says hello world
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">("world") 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">//=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "[object </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">] says hello world"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">НО если ф-я прописана отдельно,
+а потом метод объекта привязывается к этой ф-и,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ТО </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> каждый раз будет указывать на разное</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+На того, кто ф-ю вызвал - объект или глобальное пространство!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> boundHello = person.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hello.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(person);
+boundHello(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006600"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// "Brendan Eich says hello world"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">привязка гарантирует,
+что </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> будет отсылать к объекту.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;button onClick={() =&gt; this.handleClick(id)} /&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">// равносильно
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;button onClick={this.handleClick.bind(this, id)} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Пример привязки метода с передачей атрибута id</t>
   </si>
 </sst>
 </file>
@@ -4636,7 +6012,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4786,12 +6162,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Ubuntu"/>
@@ -4818,6 +6188,7 @@
       <color rgb="FF996600"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -4839,6 +6210,7 @@
       <color rgb="FF000000"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4846,6 +6218,19 @@
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF780373"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4862,13 +6247,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Ubuntu"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF800080"/>
       <name val="DejaVu Sans Mono"/>
@@ -4879,6 +6257,7 @@
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4886,18 +6265,21 @@
       <color rgb="FFB75300"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF780373"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4905,12 +6287,114 @@
       <color rgb="FFCC7832"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFCC7832"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB75300"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF996600"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006600"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFB75300"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF996600"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4993,7 +6477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5062,7 +6546,39 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5070,35 +6586,47 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5159,7 +6687,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFCC7832"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
@@ -5664,16 +7192,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="42.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="46.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="12" width="9.14"/>
   </cols>
   <sheetData>
@@ -5785,7 +7313,7 @@
       <c r="A17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5805,101 +7333,107 @@
       <c r="A20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="34.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
+      <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+    <row r="27" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+    <row r="29" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="237.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="25" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="B31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26"/>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="237.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
+      <c r="A33" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="B33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14"/>
@@ -6028,6 +7562,132 @@
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="41.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="37.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="29" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ElegantJavaScript.xlsx
+++ b/ElegantJavaScript.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Antohnio-Git-ORIGINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Функции" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="массивы" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="React" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ООП" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Функции" sheetId="1" r:id="rId1"/>
+    <sheet name="массивы" sheetId="2" r:id="rId2"/>
+    <sheet name="React" sheetId="3" r:id="rId3"/>
+    <sheet name="ООП" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,32 +29,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
-    <t xml:space="preserve">Код</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стрелочная функция (лямбда)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Стрелочная функция (лямбда)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -60,19 +62,17 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">increment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">() {
+        <charset val="204"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>() {
     likes += 1;
     console.</t>
     </r>
@@ -81,31 +81,29 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(likes);
+        <charset val="204"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(likes);
 }</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Функция инкремента - простая
+    <t>Функция инкремента - простая
 инкременирует внешнюю переменную likes и выводит в консоль результат</t>
   </si>
   <si>
-    <t xml:space="preserve">() =&gt; likes += 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Функция инкремента - стрелочная.
+    <t>() =&gt; likes += 1</t>
+  </si>
+  <si>
+    <t>Функция инкремента - стрелочная.
 Аналог лямбды в Питоне!</t>
   </si>
   <si>
@@ -117,7 +115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">const</t>
+      <t>const</t>
     </r>
     <r>
       <rPr>
@@ -137,17 +135,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hello</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">', '</t>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>', '</t>
     </r>
     <r>
       <rPr>
@@ -157,7 +155,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WORLD</t>
+      <t>WORLD</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +175,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">'Whatever'</t>
+      <t>'Whatever'</t>
     </r>
     <r>
       <rPr>
@@ -198,7 +196,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">const</t>
+      <t>const</t>
     </r>
     <r>
       <rPr>
@@ -218,32 +216,32 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(word =&gt; word.toLowerCase());</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Стрелочная функция, используемая для обработки членов массива (каждого в отдельности)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">const</t>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(word =&gt; word.toLowerCase());</t>
+    </r>
+  </si>
+  <si>
+    <t>Стрелочная функция, используемая для обработки членов массива (каждого в отдельности)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>const</t>
     </r>
     <r>
       <rPr>
@@ -263,21 +261,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(object =&gt; object.name);</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод массива имён объектов из другого массива</t>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(object =&gt; object.name);</t>
+    </r>
+  </si>
+  <si>
+    <t>Вывод массива имён объектов из другого массива</t>
   </si>
   <si>
     <r>
@@ -288,17 +286,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.examples.</t>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.examples.</t>
     </r>
     <r>
       <rPr>
@@ -308,7 +306,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">forEach</t>
+      <t>forEach</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +316,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">(example =&gt;</t>
+      <t>(example =&gt;</t>
     </r>
     <r>
       <rPr>
@@ -339,17 +337,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.runExample(example);
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.runExample(example);
 });</t>
     </r>
   </si>
@@ -372,7 +370,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">стрелочной функции</t>
+      <t>стрелочной функции</t>
     </r>
     <r>
       <rPr>
@@ -392,19 +390,19 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">forEach</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">const</t>
+      <t>forEach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>const</t>
     </r>
     <r>
       <rPr>
@@ -425,7 +423,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">'test object'</t>
+      <t>'test object'</t>
     </r>
     <r>
       <rPr>
@@ -447,7 +445,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">function()</t>
+      <t>function()</t>
     </r>
     <r>
       <rPr>
@@ -468,17 +466,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(this.name);
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(this.name);
       console.</t>
     </r>
     <r>
@@ -489,7 +487,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">log</t>
+      <t>log</t>
     </r>
     <r>
       <rPr>
@@ -513,7 +511,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">return</t>
+      <t>return</t>
     </r>
     <r>
       <rPr>
@@ -543,7 +541,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{
+      <t>{
       console.</t>
     </r>
     <r>
@@ -554,17 +552,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(this.name);
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(this.name);
       console.</t>
     </r>
     <r>
@@ -575,17 +573,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(arguments);
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(arguments);
     };
   }
 };</t>
@@ -610,7 +608,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">функции</t>
+      <t>функции</t>
     </r>
     <r>
       <rPr>
@@ -630,17 +628,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Arrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-функции внутри объекта test.
+      <t>Arrow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-функции внутри объекта test.
 Test тут является объектом - словарём. В жаргоне JS словарь называется объектным литералом.
 Результат использования будет следующий:
 &gt; const anon = test.createAnonFunction('hello', 'world');
@@ -662,17 +660,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.doSomethingAsync().then(</t>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.doSomethingAsync().then(</t>
     </r>
     <r>
       <rPr>
@@ -682,7 +680,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">(result) =&gt;</t>
+      <t>(result) =&gt;</t>
     </r>
     <r>
       <rPr>
@@ -703,33 +701,33 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.storeResult(result);
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.storeResult(result);
 });</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Использование стрелочной функции для обработки результата асинхронной функции (например, fetch).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let</t>
+    <t>Использование стрелочной функции для обработки результата асинхронной функции (например, fetch).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -749,7 +747,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">'Honda', 'Toyota', 'Seat', 'Opel', 'VW', 'BMW', 'Audi'</t>
+      <t>'Honda', 'Toyota', 'Seat', 'Opel', 'VW', 'BMW', 'Audi'</t>
     </r>
     <r>
       <rPr>
@@ -770,7 +768,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -791,7 +789,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -811,17 +809,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">reduce</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">((x,y) =&gt; x+y);</t>
+      <t>reduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>((x,y) =&gt; x+y);</t>
     </r>
   </si>
   <si>
@@ -844,7 +842,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Reduce</t>
+      <t>Reduce</t>
     </r>
     <r>
       <rPr>
@@ -866,7 +864,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -886,32 +884,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, NaN, undefined];</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Список ложных значений</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let</t>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, NaN, undefined];</t>
+    </r>
+  </si>
+  <si>
+    <t>Список ложных значений</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -931,17 +929,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -951,32 +949,32 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">);</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Исключить из массива arr ложные значения.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let</t>
+      <t>Boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Исключить из массива arr ложные значения.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1006,22 +1004,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">cars}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Конвертировать массив в объект</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let</t>
+      <t>cars}</t>
+    </r>
+  </si>
+  <si>
+    <t>Конвертировать массив в объект</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1041,7 +1039,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">new</t>
+      <t>new</t>
     </r>
     <r>
       <rPr>
@@ -1061,7 +1059,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Set</t>
+      <t>Set</t>
     </r>
     <r>
       <rPr>
@@ -1082,7 +1080,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1096,18 +1094,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Удалить повторяющиеся элементы массива (сделать множество)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cars.</t>
+    <t>Удалить повторяющиеся элементы массива (сделать множество)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cars.</t>
     </r>
     <r>
       <rPr>
@@ -1117,17 +1115,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">splice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(0, 2, 'Nissan', 'Tesla')</t>
+      <t>splice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(0, 2, 'Nissan', 'Tesla')</t>
     </r>
   </si>
   <si>
@@ -1139,7 +1137,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Заменяет</t>
+      <t>Заменяет</t>
     </r>
     <r>
       <rPr>
@@ -1161,7 +1159,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1186,7 +1184,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1206,17 +1204,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.from(new_cars, ({car} )=&gt; car)</t>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.from(new_cars, ({car} )=&gt; car)</t>
     </r>
   </si>
   <si>
@@ -1238,7 +1236,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">массив</t>
+      <t>массив</t>
     </r>
     <r>
       <rPr>
@@ -1252,22 +1250,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">nums = [];
+    <t>nums = [];
 cars.splice(0, cars.length)</t>
   </si>
   <si>
-    <t xml:space="preserve">Очистить массив (сделать пустым)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let</t>
+    <t>Очистить массив (сделать пустым)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1287,7 +1285,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">new</t>
+      <t>new</t>
     </r>
     <r>
       <rPr>
@@ -1307,7 +1305,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(nums)].</t>
+      <t>(nums)].</t>
     </r>
     <r>
       <rPr>
@@ -1317,17 +1315,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(item =&gt; nums2.</t>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(item =&gt; nums2.</t>
     </r>
     <r>
       <rPr>
@@ -1337,17 +1335,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">includes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(item))</t>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(item))</t>
     </r>
   </si>
   <si>
@@ -1369,7 +1367,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">пересечение</t>
+      <t>пересечение</t>
     </r>
     <r>
       <rPr>
@@ -1391,7 +1389,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1411,17 +1409,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">reverse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">()</t>
+      <t>reverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>()</t>
     </r>
   </si>
   <si>
@@ -1433,7 +1431,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">реверс</t>
+      <t>реверс</t>
     </r>
     <r>
       <rPr>
@@ -1455,7 +1453,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1475,17 +1473,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">lastIndexOf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1);</t>
+      <t>lastIndexOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(1);</t>
     </r>
   </si>
   <si>
@@ -1507,7 +1505,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">индекс последнего вхождения</t>
+      <t>индекс последнего вхождения</t>
     </r>
     <r>
       <rPr>
@@ -1529,7 +1527,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">let</t>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1549,32 +1547,32 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Заполнить массив данными</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">let</t>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Заполнить массив данными</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>let</t>
     </r>
     <r>
       <rPr>
@@ -1594,17 +1592,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Math.random</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">() * (nums.</t>
+      <t>Math.random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>() * (nums.</t>
     </r>
     <r>
       <rPr>
@@ -1614,27 +1612,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">))]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Случайный элемент из массива</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимальная структура проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public/
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>))]</t>
+    </r>
+  </si>
+  <si>
+    <t>Случайный элемент из массива</t>
+  </si>
+  <si>
+    <t>Минимальная структура проекта</t>
+  </si>
+  <si>
+    <t>public/
     index.html
 src/
     App.js
@@ -1645,26 +1643,23 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ReactDOM.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">render</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ReactDOM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(
@@ -1675,7 +1670,6 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> &lt;App /&gt;</t>
@@ -1684,7 +1678,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
@@ -1695,57 +1688,51 @@
         <sz val="10"/>
         <color rgb="FF512DA8"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">document</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">getElementById</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>getElementById</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'root'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
+        <charset val="1"/>
+      </rPr>
+      <t>'root'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
 );</t>
     </r>
   </si>
@@ -1755,27 +1742,24 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ReactDom.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">render</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ReactDom.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> вставляет наш элемент (&lt;App/&gt;)
@@ -1786,7 +1770,6 @@
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 'root'</t>
@@ -1796,64 +1779,58 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)
+        <charset val="1"/>
+      </rPr>
+      <t>)
 Описывать вставляемые элементы удобнее через систему краткой записи JSX,
 когда мы в тегах пишем наши элементы</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;button&gt;Название кнопки&lt;/button&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кнопка в JSX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">React.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">createElement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+    <t>&lt;button&gt;Название кнопки&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>кнопка в JSX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>React.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>createElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'button'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
@@ -1861,27 +1838,25 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">},
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>},
                     'Нажми на меня')</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Разместить элемент React обычным способом.
+    <t>Разместить элемент React обычным способом.
 Первым аргументом - тип элемента.
 Вторым - набор параметров в виде словаря
 Третьим - текст элемента</t>
@@ -1891,61 +1866,56 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">React.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">createElement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>React.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>createElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">'button'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,
+        <charset val="1"/>
+      </rPr>
+      <t>'button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,
                     {onClick: () =&gt; 
                     console.log('Нажата кнопка!')},
                     'Нажми на меня'),</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Разместить элемент React с указанием действия "по нажатию".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Состояния</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Характеризуют состояния и изменения объектов.
+    <t>Разместить элемент React с указанием действия "по нажатию".</t>
+  </si>
+  <si>
+    <t>Состояния</t>
+  </si>
+  <si>
+    <t>Характеризуют состояния и изменения объектов.
 При изменении Состояний только React перерисует объект!</t>
   </si>
   <si>
@@ -1954,7 +1924,6 @@
         <sz val="9"/>
         <color rgb="FFB75300"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">import </t>
@@ -1963,36 +1932,32 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> from </t>
@@ -2002,17 +1967,15 @@
         <sz val="9"/>
         <color rgb="FF006600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">'react'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'react'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
@@ -2020,11 +1983,10 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
@@ -2032,10 +1994,9 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2044,7 +2005,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">state = </t>
@@ -2054,16 +2014,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(0)
@@ -2071,28 +2029,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">объявление состояния с указанием: 
+    <t>объявление состояния с указанием: 
 1 атрибут -  значения по умолчанию,
 2 атрибут - функция изменения состояния</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [count, setCount] = </t>
@@ -2102,44 +2058,40 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(0)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Получаем в разные переменные значение Состояния
+        <charset val="1"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+  </si>
+  <si>
+    <t>Получаем в разные переменные значение Состояния
 и функцию Состояния</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2148,7 +2100,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">App() {
@@ -2156,21 +2107,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">const</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2179,7 +2128,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">[likes, setLikes] = </t>
@@ -2189,16 +2137,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(0)
@@ -2206,21 +2152,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2230,16 +2174,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">increment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -2249,21 +2191,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2273,16 +2213,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">decrement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -2292,21 +2230,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">return</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2315,10 +2251,9 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(
+        <charset val="204"/>
+      </rPr>
+      <t>(
     &lt;</t>
     </r>
     <r>
@@ -2326,16 +2261,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> className=</t>
@@ -2345,16 +2278,14 @@
         <sz val="9"/>
         <color rgb="FF006600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">"App"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"App"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&gt;
@@ -2365,26 +2296,23 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h1&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">{likes}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{likes}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;/h1&gt;
@@ -2394,7 +2322,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">        &lt;</t>
@@ -2404,16 +2331,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> onClick={increment}&gt;Increment&lt;/</t>
@@ -2423,19 +2348,17 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">&gt;
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&gt;
         &lt;p&gt;  &lt;/p&gt;
         &lt;</t>
     </r>
@@ -2444,16 +2367,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> onClick={decrement}&gt;Increment&lt;/</t>
@@ -2463,19 +2384,17 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">&gt;
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&gt;
     &lt;/</t>
     </r>
     <r>
@@ -2483,16 +2402,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&gt;
@@ -2502,42 +2419,38 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">export</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">default</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2546,19 +2459,17 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">App;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>App;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Использование Состояния количества лайков 
@@ -2570,17 +2481,15 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">setLikes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>setLikes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2589,41 +2498,37 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">React перерисовывает число лайков при каждом изменении.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>React перерисовывает число лайков при каждом изменении.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> type=</t>
@@ -2633,7 +2538,6 @@
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"text"
@@ -2643,7 +2547,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">       value={textVal}
@@ -2654,19 +2557,17 @@
         <sz val="10"/>
         <color rgb="FF800080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">target.value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)}
+        <charset val="1"/>
+      </rPr>
+      <t>target.value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)}
 /&gt;</t>
     </r>
   </si>
@@ -2676,7 +2577,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">простое окошко ввода,
@@ -2686,21 +2586,20 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">setTextVal - ф-я изменения Состояния текстовой переменной textVal</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Хуки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">можно использовать в функциональных элементах и своих хуках ТОЛЬКО на 1 уровне вложенности.
+        <charset val="1"/>
+      </rPr>
+      <t>setTextVal - ф-я изменения Состояния текстовой переменной textVal</t>
+    </r>
+  </si>
+  <si>
+    <t>Хуки</t>
+  </si>
+  <si>
+    <t>можно использовать в функциональных элементах и своих хуках ТОЛЬКО на 1 уровне вложенности.
 НЕЛЬЗЯ вкладывать хуки в нижние уровни: в классы, циклы, функции, условия…</t>
   </si>
   <si>
-    <t xml:space="preserve">useState( );
+    <t>useState( );
 useEffect( );
 useRef( );
 useMemo( );
@@ -2708,106 +2607,97 @@
 useContext( );</t>
   </si>
   <si>
-    <t xml:space="preserve">Магические функции React,
+    <t>Магические функции React,
 начинающиеся со слова use:</t>
   </si>
   <si>
-    <t xml:space="preserve">Другие магические функции</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.setState({</t>
+    <t>Другие магические функции</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.setState({</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">state.count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>state.count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> + 1})</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">setState  - ф-я установки нового состояния.
+    <t>setState  - ф-я установки нового состояния.
 Принимает словарь, где ключи - переменные, а значения - новые состояния</t>
   </si>
   <si>
-    <t xml:space="preserve">Компоненты</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+    <t>Компоненты</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">src/
@@ -2819,34 +2709,31 @@
         <sz val="10"/>
         <color rgb="FF008000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Counter.jsx</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Хранятся в папке components в формате .jsx,
+        <charset val="1"/>
+      </rPr>
+      <t>Counter.jsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Хранятся в папке components в формате .jsx,
 импортируются в нужные места в любом количестве</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">import</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2856,37 +2743,33 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Counter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">from</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2896,16 +2779,14 @@
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"./components/Counter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"./components/Counter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
@@ -2913,21 +2794,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">import</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2936,28 +2815,25 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ClassCounter </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">from</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2967,16 +2843,14 @@
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"./components/ClassCounter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"./components/ClassCounter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
@@ -2984,21 +2858,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3008,16 +2880,14 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -3025,21 +2895,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">return</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3048,7 +2916,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(
@@ -3059,16 +2926,14 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> className=</t>
@@ -3078,16 +2943,14 @@
         <sz val="10"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"App"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"App"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&gt;
@@ -3098,7 +2961,6 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;Counter/&gt;
@@ -3110,7 +2972,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  );
@@ -3122,7 +2983,6 @@
         <sz val="10"/>
         <color rgb="FFB75300"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
@@ -3130,21 +2990,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">export default</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>export default</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3154,16 +3012,14 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
@@ -3171,59 +3027,54 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Импорт компонентов в приложение</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+    <t>Импорт компонентов в приложение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Пример </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">функционального компонента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">import</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>функционального компонента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3232,47 +3083,42 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">React, {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>React, {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">} </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">from</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3282,16 +3128,14 @@
         <sz val="9"/>
         <color rgb="FF006600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">'react'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'react'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">;
@@ -3299,21 +3143,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">const</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3322,28 +3164,25 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Counter = </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3352,7 +3191,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -3360,21 +3198,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">const</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3383,7 +3219,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">[count, </t>
@@ -3393,16 +3228,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">setCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>setCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">] = </t>
@@ -3412,16 +3245,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(0)
@@ -3429,21 +3260,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3453,16 +3282,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">increment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -3473,16 +3300,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">setCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>setCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(count + 1)
@@ -3491,21 +3316,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3515,16 +3338,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">decrement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -3535,16 +3356,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">setCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>setCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(count - 1)
@@ -3553,21 +3372,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">return</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3576,7 +3393,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(
@@ -3587,7 +3403,6 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;div&gt;
@@ -3597,7 +3412,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">           </t>
@@ -3607,7 +3421,6 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> &lt;h1&gt;</t>
@@ -3616,17 +3429,15 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">{count}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>{count}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;/h1&gt;
@@ -3636,7 +3447,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">            </t>
@@ -3646,7 +3456,6 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;p&gt;  &lt;/p&gt;
@@ -3656,7 +3465,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">            </t>
@@ -3666,16 +3474,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">&lt;button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> onClick={increment}&gt;Increment</t>
@@ -3685,7 +3491,6 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;/button&gt;
@@ -3695,7 +3500,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">            </t>
@@ -3705,17 +3509,15 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p&gt;  &lt;/p&gt;
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;p&gt;  &lt;/p&gt;
             &lt;button</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> onClick={decrement}&gt;Decrement</t>
@@ -3725,7 +3527,6 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;/button&gt;
@@ -3735,7 +3536,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">        </t>
@@ -3745,7 +3545,6 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">&lt;/div&gt;
@@ -3755,7 +3554,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">    )
@@ -3764,21 +3562,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">export default</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>export default</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3787,19 +3583,17 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Counter;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Counter;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Выводит число и две кнопки
@@ -3811,63 +3605,57 @@
         <sz val="10"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">useState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">( )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>useState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>( )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Пример </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">классового компонента (УСТАРЕВШИЙ ПОДХОД)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">class</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>классового компонента (УСТАРЕВШИЙ ПОДХОД)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3876,28 +3664,25 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">ClassCounter </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">extends</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3906,26 +3691,23 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">React.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Component</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>React.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> {
@@ -3936,16 +3718,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">constructor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(props) {
@@ -3953,20 +3733,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">super</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">(props);
@@ -3974,39 +3752,35 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF800080"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">state</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> = {
@@ -4017,16 +3791,14 @@
         <sz val="9"/>
         <color rgb="FF800080"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">: 0
@@ -4035,98 +3807,88 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">increment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> = </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">increment.bind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>increment.bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">);
@@ -4134,101 +3896,91 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">decrement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> = </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">decrement.bind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">);
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>decrement.bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="204"/>
+      </rPr>
+      <t>);
     }</t>
     </r>
   </si>
@@ -4242,16 +3994,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">increment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -4259,87 +4009,78 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">setState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">({</t>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>setState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>({</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">state.count </t>
@@ -4348,7 +4089,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+ 1})
@@ -4360,16 +4100,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">decrement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() {
@@ -4377,87 +4115,78 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">setState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">({</t>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>setState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>({</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">state.count </t>
@@ -4466,7 +4195,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- 1})
@@ -4478,16 +4206,14 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">render</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> () {
@@ -4495,21 +4221,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">return</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4518,7 +4242,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(
@@ -4529,69 +4252,62 @@
         <sz val="9"/>
         <color rgb="FF996600"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;div&gt;
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;div&gt;
                 &lt;h1&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <charset val="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF780373"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">state.count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h1&gt;
+        <charset val="1"/>
+      </rPr>
+      <t>state.count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/h1&gt;
                 &lt;p&gt;  &lt;/p&gt;
                 &lt;button</t>
     </r>
@@ -4599,40 +4315,36 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> onClick={</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.increment}&gt;Increment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/button&gt;
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.increment}&gt;Increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/button&gt;
                 &lt;p&gt;  &lt;/p&gt;
                 &lt;button</t>
     </r>
@@ -4640,37 +4352,33 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> onClick={</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FFB75300"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.decrement}&gt;Decrement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF996600"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFB75300"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.decrement}&gt;Decrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF996600"/>
+        <rFont val="DejaVu Sans Mono"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/button&gt;
@@ -4681,7 +4389,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">        )
@@ -4690,18 +4397,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">описание методов (БЕЗ ключевого слова function)
+    <t>описание методов (БЕЗ ключевого слова function)
 Классовый компонент должен возвращать jsx, 
 рендерить его</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">export default </t>
@@ -4710,30 +4416,28 @@
       <rPr>
         <sz val="9"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ClassCounter</t>
+        <charset val="1"/>
+      </rPr>
+      <t>ClassCounter</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FFCC7832"/>
         <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Примеры классов и объектов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привязка методов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) obj.method();
+        <charset val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Примеры классов и объектов</t>
+  </si>
+  <si>
+    <t>Привязка методов</t>
+  </si>
+  <si>
+    <t>1) obj.method();
 2) var method = obj.method;
     method();</t>
   </si>
@@ -4743,53 +4447,48 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">В JavaScript эти два фрагмента кода </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">НЕ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>НЕ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> равнозначны</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Привязка гарантирует, что второй фрагмент будет работать так же, как и первый</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+    <t>Привязка гарантирует, что второй фрагмент будет работать так же, как и первый</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4799,20 +4498,18 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(thing) {
+        <charset val="1"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(thing) {
   console.</t>
     </r>
     <r>
@@ -4820,37 +4517,33 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> + </t>
@@ -4860,17 +4553,15 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">" says hello "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>" says hello "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> + thing);
@@ -4882,37 +4573,33 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"Yehuda", "world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Yehuda", "world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) 
@@ -4923,17 +4610,15 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">//=&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>//=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4943,51 +4628,46 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Yehuda says hello world</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Функция ДАЖЕ БЕЗ класса принимает ключевое слово</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Yehuda says hello world</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Функция ДАЖЕ БЕЗ класса принимает ключевое слово</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
@@ -4999,37 +4679,33 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">call</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>call</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hello(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) 
@@ -5040,7 +4716,6 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">//=&gt; [object global] says hello world
@@ -5051,26 +4726,23 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>hello(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
@@ -5081,7 +4753,6 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">// desugars to:
@@ -5091,36 +4762,32 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(undefined,</t>
+        <charset val="1"/>
+      </rPr>
+      <t>hello.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(undefined,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "world"</t>
@@ -5129,19 +4796,17 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Но если вызвать как привыкли, то
@@ -5149,21 +4814,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> подставится объект окна ф-и</t>
@@ -5172,21 +4835,19 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">var</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5195,7 +4856,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">person = {
@@ -5206,16 +4866,14 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"Brendan Eich"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Brendan Eich"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
@@ -5223,23 +4881,21 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(thing) {
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(thing) {
         console.</t>
     </r>
     <r>
@@ -5247,37 +4903,33 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5286,7 +4938,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+ </t>
@@ -5296,16 +4947,14 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">" says hello "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>" says hello "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> + thing);
@@ -5317,16 +4966,14 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">// this:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>// this:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
@@ -5337,35 +4984,31 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
@@ -5376,16 +5019,14 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">// Идентично:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>// Идентично:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
@@ -5396,16 +5037,14 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello.call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hello.call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(person, </t>
@@ -5415,16 +5054,14 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">);
@@ -5435,7 +5072,6 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
@@ -5446,7 +5082,6 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
       </rPr>
       <t xml:space="preserve">//=&gt;  </t>
     </r>
@@ -5455,19 +5090,17 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[object Object] says hello world</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>[object Object] says hello world</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Если ф-я объявлена в переменной,
@@ -5475,21 +5108,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> будет ссылаться на эту переменную
@@ -5499,21 +5130,19 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> hello(thing) {
@@ -5524,38 +5153,34 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> + </t>
@@ -5565,7 +5190,6 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">" says hello " </t>
@@ -5575,7 +5199,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+ thing);
@@ -5587,17 +5210,15 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"Brendan Eich"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"Brendan Eich"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> }
@@ -5608,17 +5229,15 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> = hello;
@@ -5629,7 +5248,6 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">// #########################
@@ -5640,47 +5258,42 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">person.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>person.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -5690,7 +5303,6 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">// still desugars to person.hello.call(person, "world")
@@ -5701,26 +5313,23 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
       </rPr>
       <t xml:space="preserve">//=&gt;  [object </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Object</t>
+      </rPr>
+      <t>Object</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
       </rPr>
       <t xml:space="preserve">] says hello world
 </t>
@@ -5730,17 +5339,15 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hello</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">("world") 
@@ -5751,37 +5358,33 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">//=&gt;</t>
+      </rPr>
+      <t>//=&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> "[object </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">global</t>
+        <charset val="1"/>
+      </rPr>
+      <t>global</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">] says hello world"
@@ -5794,7 +5397,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">НО если ф-я прописана отдельно,
@@ -5803,33 +5405,30 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ТО </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> каждый раз будет указывать на разное</t>
@@ -5839,10 +5438,9 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 
+        <charset val="1"/>
+      </rPr>
+      <t>. 
 На того, кто ф-ю вызвал - объект или глобальное пространство!</t>
     </r>
   </si>
@@ -5852,17 +5450,15 @@
         <sz val="11"/>
         <color rgb="FFB75300"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> boundHello = person.</t>
@@ -5872,31 +5468,28 @@
         <sz val="11"/>
         <color rgb="FF996600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hello.</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF996600"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(person);
+        <charset val="1"/>
+      </rPr>
+      <t>hello.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF996600"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(person);
 boundHello(</t>
     </r>
     <r>
@@ -5904,17 +5497,15 @@
         <sz val="11"/>
         <color rgb="FF006600"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"world"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"world"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) 
@@ -5925,20 +5516,18 @@
         <sz val="11"/>
         <color rgb="FF808080"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">// "Brendan Eich says hello world"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>// "Brendan Eich says hello world"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">привязка гарантирует,
@@ -5946,22 +5535,20 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFB75300"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">this</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <family val="0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFB75300"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> будет отсылать к объекту.</t>
@@ -5973,7 +5560,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;button onClick={() =&gt; this.handleClick(id)} /&gt;
@@ -5984,7 +5570,6 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">// равносильно
@@ -5995,24 +5580,20 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;button onClick={this.handleClick.bind(this, id)} /&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Пример привязки метода с передачей атрибута id</t>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;button onClick={this.handleClick.bind(this, id)} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример привязки метода с передачей атрибута id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="55">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6021,22 +5602,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -6044,31 +5610,27 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFB75300"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF996600"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
@@ -6131,269 +5693,231 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF512DA8"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFB75300"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF996600"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF006600"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFB75300"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF780373"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFB75300"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF800080"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFB75300"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF780373"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFCC7832"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFCC7832"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFB75300"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF996600"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006600"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFB75300"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF996600"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -6430,215 +5954,166 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -6697,30 +6172,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF512DA8"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.14"/>
+    <col min="1" max="1" width="61.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6728,13 +6477,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="48">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6742,7 +6491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -6750,11 +6499,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -6762,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -6770,7 +6519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="45">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -6778,7 +6527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="216.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="255">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -6786,7 +6535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="45">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -6794,157 +6543,144 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="9.14"/>
+    <col min="1" max="1" width="59.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -6960,7 +6696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -6968,7 +6704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -6976,7 +6712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -6984,7 +6720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -6992,7 +6728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -7000,7 +6736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="90">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -7008,7 +6744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -7016,7 +6752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -7024,7 +6760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -7032,7 +6768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -7040,7 +6776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -7048,7 +6784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
@@ -7056,168 +6792,160 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="42.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="46.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="12" width="9.14"/>
+    <col min="1" max="1" width="42.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="47" style="12" customWidth="1"/>
+    <col min="3" max="1024" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" customFormat="false" ht="54.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="63.75">
       <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="70.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="70.7" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -7225,7 +6953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
@@ -7233,11 +6961,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="51">
       <c r="A6" s="15" t="s">
         <v>49</v>
       </c>
@@ -7245,7 +6973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="51">
       <c r="A7" s="15" t="s">
         <v>51</v>
       </c>
@@ -7253,15 +6981,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="38.25">
       <c r="A10" s="17" t="s">
         <v>53</v>
       </c>
@@ -7269,7 +6997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="48">
       <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
@@ -7277,7 +7005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="38.25">
       <c r="A12" s="19" t="s">
         <v>57</v>
       </c>
@@ -7285,11 +7013,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="252.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="288">
       <c r="A14" s="20" t="s">
         <v>59</v>
       </c>
@@ -7297,7 +7025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="45.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="63.75">
       <c r="A15" s="15" t="s">
         <v>61</v>
       </c>
@@ -7305,11 +7033,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2">
       <c r="A16" s="15"/>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="56.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="63.75">
       <c r="A17" s="21" t="s">
         <v>63</v>
       </c>
@@ -7317,7 +7045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="67.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="76.5">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -7325,17 +7053,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2">
       <c r="A20" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="36">
       <c r="A21" s="20" t="s">
         <v>68</v>
       </c>
@@ -7343,25 +7071,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2">
       <c r="A25" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" ht="38.25">
       <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
@@ -7369,7 +7097,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" ht="204">
       <c r="A27" s="19" t="s">
         <v>73</v>
       </c>
@@ -7377,13 +7105,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2">
       <c r="A28" s="24"/>
       <c r="B28" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" ht="324">
       <c r="A29" s="20" t="s">
         <v>76</v>
       </c>
@@ -7391,13 +7119,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" ht="25.5">
       <c r="A30" s="24"/>
       <c r="B30" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" ht="120">
       <c r="A31" s="20" t="s">
         <v>79</v>
       </c>
@@ -7405,7 +7133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="237.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" ht="252">
       <c r="A32" s="26" t="s">
         <v>81</v>
       </c>
@@ -7413,181 +7141,180 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2">
       <c r="A33" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2">
       <c r="A34" s="27"/>
       <c r="B34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2">
+      <c r="A36"/>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:2">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:2">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:2">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:2">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:2">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:2">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:2">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:2">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:2">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:2">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:2">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:2">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:2">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:2">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:2">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:2">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:2">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:2">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:2">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:2">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:2">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:2">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:2">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:2">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:2">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:2">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:2">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
@@ -7595,36 +7322,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="41.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="37.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="29" width="9.14"/>
+    <col min="1" max="1" width="57.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="28" customWidth="1"/>
+    <col min="3" max="1024" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="30"/>
     </row>
-    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="42.75">
       <c r="A9" s="28" t="s">
         <v>86</v>
       </c>
@@ -7632,12 +7356,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="42.75">
       <c r="B10" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="87">
       <c r="A11" s="32" t="s">
         <v>89</v>
       </c>
@@ -7645,7 +7369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="99.75">
       <c r="A12" s="34" t="s">
         <v>91</v>
       </c>
@@ -7653,7 +7377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" ht="187.5">
       <c r="A13" s="35" t="s">
         <v>93</v>
       </c>
@@ -7661,11 +7385,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
     </row>
-    <row r="15" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="203.25">
       <c r="A15" s="35" t="s">
         <v>95</v>
       </c>
@@ -7673,7 +7397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="57.75">
       <c r="A16" s="32" t="s">
         <v>97</v>
       </c>
@@ -7681,7 +7405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="71.25">
       <c r="A18" s="28" t="s">
         <v>99</v>
       </c>
@@ -7690,10 +7414,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
